--- a/cbrunner/Parameters/Parameters_ByFundingSourceCode.xlsx
+++ b/cbrunner/Parameters/Parameters_ByFundingSourceCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2F2014-04AC-4954-97EF-0751E7714722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E1DCEC-D765-4DB5-874F-CDB84A34303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1152" windowWidth="20916" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1245" windowWidth="20700" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -753,9 +753,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -793,9 +793,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,26 +828,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,26 +863,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1076,30 +1042,30 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="A1:G16"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="8" max="8" width="76.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1098,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1126,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1154,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1182,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1210,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1270,7 +1236,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
@@ -1298,7 +1264,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1294,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1354,7 +1320,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1348,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -1412,7 +1378,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1442,7 +1408,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -1472,7 +1438,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -1502,7 +1468,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -1530,7 +1496,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1558,7 +1524,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1552,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -1608,7 +1574,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>48</v>
       </c>
@@ -1628,7 +1594,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -1648,7 +1614,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
@@ -1668,7 +1634,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>55</v>
       </c>
@@ -1686,7 +1652,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1670,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -1726,7 +1692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -1744,7 +1710,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -1762,7 +1728,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -1780,7 +1746,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>69</v>
       </c>
@@ -1798,7 +1764,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>71</v>
       </c>
@@ -1816,7 +1782,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>73</v>
       </c>
@@ -1834,7 +1800,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>75</v>
       </c>
@@ -1852,7 +1818,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>77</v>
       </c>
@@ -1870,7 +1836,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>79</v>
       </c>
@@ -1888,7 +1854,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>81</v>
       </c>
@@ -1906,7 +1872,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>83</v>
       </c>
@@ -1924,7 +1890,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>85</v>
       </c>
@@ -1942,7 +1908,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>87</v>
       </c>
@@ -1960,7 +1926,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>89</v>
       </c>
@@ -1978,7 +1944,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>91</v>
       </c>
@@ -1996,7 +1962,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>93</v>
       </c>
@@ -2014,7 +1980,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>95</v>
       </c>
@@ -2032,7 +1998,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>97</v>
       </c>
@@ -2050,7 +2016,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>99</v>
       </c>
@@ -2070,7 +2036,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>102</v>
       </c>
@@ -2090,7 +2056,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>104</v>
       </c>
@@ -2112,7 +2078,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>107</v>
       </c>
@@ -2132,7 +2098,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>109</v>
       </c>
@@ -2152,7 +2118,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>112</v>
       </c>
@@ -2170,7 +2136,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>114</v>
       </c>
@@ -2188,7 +2154,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>116</v>
       </c>
@@ -2206,7 +2172,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>118</v>
       </c>
@@ -2228,7 +2194,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>121</v>
       </c>
@@ -2248,7 +2214,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>123</v>
       </c>
@@ -2268,7 +2234,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>125</v>
       </c>
@@ -2292,7 +2258,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>128</v>
       </c>
@@ -2314,7 +2280,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>131</v>
       </c>
@@ -2336,7 +2302,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>134</v>
       </c>
@@ -2360,7 +2326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>136</v>
       </c>
@@ -2380,7 +2346,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>170</v>
       </c>
@@ -2398,7 +2364,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>138</v>
       </c>
@@ -2416,7 +2382,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>140</v>
       </c>
@@ -2440,7 +2406,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>144</v>
       </c>
@@ -2464,7 +2430,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>147</v>
       </c>
@@ -2490,7 +2456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>151</v>
       </c>
@@ -2514,7 +2480,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>154</v>
       </c>
@@ -2538,7 +2504,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>157</v>
       </c>
@@ -2562,7 +2528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>158</v>
       </c>
@@ -2582,7 +2548,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="16"/>
     </row>
-    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>160</v>
       </c>
@@ -2602,7 +2568,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="16"/>
     </row>
-    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>162</v>
       </c>
@@ -2641,7 +2607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2653,22 +2619,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2DDEE06AF721C4F84DFC6CCC3312466" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfe1f04086ac4112da9680cac604272f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56ac9dff-97dc-464e-91bf-d8fe70a7b666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f42f36c97a62bb7c3858307fd7d0499" ns2:_="">
     <xsd:import namespace="56ac9dff-97dc-464e-91bf-d8fe70a7b666"/>
@@ -2814,15 +2771,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE46A8F7-AFA8-4F5F-8B53-6A5EF6D2176E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2838,4 +2796,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cbrunner/Parameters/Parameters_ByFundingSourceCode.xlsx
+++ b/cbrunner/Parameters/Parameters_ByFundingSourceCode.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E1DCEC-D765-4DB5-874F-CDB84A34303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717E607A-DA97-48BB-B4B8-DF43ED50B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1245" windowWidth="20700" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2601,31 +2599,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2DDEE06AF721C4F84DFC6CCC3312466" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfe1f04086ac4112da9680cac604272f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56ac9dff-97dc-464e-91bf-d8fe70a7b666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f42f36c97a62bb7c3858307fd7d0499" ns2:_="">
     <xsd:import namespace="56ac9dff-97dc-464e-91bf-d8fe70a7b666"/>
@@ -2771,16 +2754,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE46A8F7-AFA8-4F5F-8B53-6A5EF6D2176E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2796,12 +2778,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>